--- a/xlsx/country_comparison/problem_mean.xlsx
+++ b/xlsx/country_comparison/problem_mean.xlsx
@@ -395,19 +395,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.552238805970149</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="C2" t="n">
-        <v>0.32258064516129</v>
+        <v>0.453038674033149</v>
       </c>
       <c r="D2" t="n">
-        <v>0.758620689655172</v>
+        <v>0.811475409836066</v>
       </c>
       <c r="E2" t="n">
-        <v>0.367647058823529</v>
+        <v>0.304347826086957</v>
       </c>
       <c r="F2" t="n">
-        <v>0.267441860465116</v>
+        <v>0.276150627615063</v>
       </c>
     </row>
     <row r="3">
@@ -415,19 +415,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.791044776119403</v>
+        <v>0.887323943661972</v>
       </c>
       <c r="C3" t="n">
-        <v>0.741935483870968</v>
+        <v>0.767955801104972</v>
       </c>
       <c r="D3" t="n">
-        <v>0.931034482758621</v>
+        <v>1.01639344262295</v>
       </c>
       <c r="E3" t="n">
-        <v>0.529411764705882</v>
+        <v>0.260869565217391</v>
       </c>
       <c r="F3" t="n">
-        <v>0.430232558139535</v>
+        <v>0.449980981361734</v>
       </c>
     </row>
     <row r="4">
@@ -435,19 +435,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.388059701492537</v>
+        <v>0.633802816901408</v>
       </c>
       <c r="C4" t="n">
-        <v>0.645161290322581</v>
+        <v>0.674033149171271</v>
       </c>
       <c r="D4" t="n">
-        <v>0.689655172413793</v>
+        <v>0.967213114754098</v>
       </c>
       <c r="E4" t="n">
-        <v>0.294117647058824</v>
+        <v>0.217391304347826</v>
       </c>
       <c r="F4" t="n">
-        <v>0.395348837209302</v>
+        <v>0.288702928870293</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/problem_mean.xlsx
+++ b/xlsx/country_comparison/problem_mean.xlsx
@@ -395,19 +395,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.704225352112676</v>
+        <v>0.353225806451613</v>
       </c>
       <c r="C2" t="n">
-        <v>0.453038674033149</v>
+        <v>0.392338177014531</v>
       </c>
       <c r="D2" t="n">
-        <v>0.811475409836066</v>
+        <v>0.762430939226519</v>
       </c>
       <c r="E2" t="n">
-        <v>0.304347826086957</v>
+        <v>0.349378881987578</v>
       </c>
       <c r="F2" t="n">
-        <v>0.276150627615063</v>
+        <v>0.27884979190314</v>
       </c>
     </row>
     <row r="3">
@@ -415,19 +415,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.887323943661972</v>
+        <v>0.8</v>
       </c>
       <c r="C3" t="n">
-        <v>0.767955801104972</v>
+        <v>0.755614266842801</v>
       </c>
       <c r="D3" t="n">
-        <v>1.01639344262295</v>
+        <v>0.906077348066298</v>
       </c>
       <c r="E3" t="n">
-        <v>0.260869565217391</v>
+        <v>0.633540372670807</v>
       </c>
       <c r="F3" t="n">
-        <v>0.449980981361734</v>
+        <v>0.45251608021188</v>
       </c>
     </row>
     <row r="4">
@@ -435,19 +435,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.633802816901408</v>
+        <v>0.485483870967742</v>
       </c>
       <c r="C4" t="n">
-        <v>0.674033149171271</v>
+        <v>0.589167767503302</v>
       </c>
       <c r="D4" t="n">
-        <v>0.967213114754098</v>
+        <v>0.920810313075506</v>
       </c>
       <c r="E4" t="n">
-        <v>0.217391304347826</v>
+        <v>0.273291925465839</v>
       </c>
       <c r="F4" t="n">
-        <v>0.288702928870293</v>
+        <v>0.291335603480893</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/problem_mean.xlsx
+++ b/xlsx/country_comparison/problem_mean.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -27,9 +33,6 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">Income inequality in [Country]</t>
@@ -389,65 +392,77 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.353225806451613</v>
+        <v>0.264654241856279</v>
       </c>
       <c r="C2" t="n">
-        <v>0.392338177014531</v>
+        <v>0.428661774810723</v>
       </c>
       <c r="D2" t="n">
-        <v>0.762430939226519</v>
+        <v>0.398891013421293</v>
       </c>
       <c r="E2" t="n">
-        <v>0.349378881987578</v>
+        <v>0.393182055017288</v>
       </c>
       <c r="F2" t="n">
-        <v>0.27884979190314</v>
+        <v>0.722686314965261</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.382825995968633</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8</v>
+        <v>0.405739153723734</v>
       </c>
       <c r="C3" t="n">
-        <v>0.755614266842801</v>
+        <v>0.758318032191244</v>
       </c>
       <c r="D3" t="n">
-        <v>0.906077348066298</v>
+        <v>0.821473107860989</v>
       </c>
       <c r="E3" t="n">
-        <v>0.633540372670807</v>
+        <v>0.722747190048162</v>
       </c>
       <c r="F3" t="n">
-        <v>0.45251608021188</v>
+        <v>0.849798077390449</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.673709486395582</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.485483870967742</v>
+        <v>0.28828324647989</v>
       </c>
       <c r="C4" t="n">
-        <v>0.589167767503302</v>
+        <v>0.540850127653509</v>
       </c>
       <c r="D4" t="n">
-        <v>0.920810313075506</v>
+        <v>0.499563163133224</v>
       </c>
       <c r="E4" t="n">
-        <v>0.273291925465839</v>
+        <v>0.558096448993952</v>
       </c>
       <c r="F4" t="n">
-        <v>0.291335603480893</v>
+        <v>0.909868571645138</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.39827187591716</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/problem_mean.xlsx
+++ b/xlsx/country_comparison/problem_mean.xlsx
@@ -401,22 +401,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.264654241856279</v>
+        <v>0.285378286059404</v>
       </c>
       <c r="C2" t="n">
-        <v>0.428661774810723</v>
+        <v>0.432538732626294</v>
       </c>
       <c r="D2" t="n">
-        <v>0.398891013421293</v>
+        <v>0.381311940646684</v>
       </c>
       <c r="E2" t="n">
-        <v>0.393182055017288</v>
+        <v>0.370904568200323</v>
       </c>
       <c r="F2" t="n">
-        <v>0.722686314965261</v>
+        <v>0.718854935172076</v>
       </c>
       <c r="G2" t="n">
-        <v>0.382825995968633</v>
+        <v>0.395493103905953</v>
       </c>
     </row>
     <row r="3">
@@ -424,22 +424,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.405739153723734</v>
+        <v>0.419772214621581</v>
       </c>
       <c r="C3" t="n">
-        <v>0.758318032191244</v>
+        <v>0.753318322870394</v>
       </c>
       <c r="D3" t="n">
-        <v>0.821473107860989</v>
+        <v>0.830936960079889</v>
       </c>
       <c r="E3" t="n">
-        <v>0.722747190048162</v>
+        <v>0.734895238975058</v>
       </c>
       <c r="F3" t="n">
-        <v>0.849798077390449</v>
+        <v>0.845284995489185</v>
       </c>
       <c r="G3" t="n">
-        <v>0.673709486395582</v>
+        <v>0.652580521536031</v>
       </c>
     </row>
     <row r="4">
@@ -447,22 +447,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.28828324647989</v>
+        <v>0.294962046606193</v>
       </c>
       <c r="C4" t="n">
-        <v>0.540850127653509</v>
+        <v>0.546414814539169</v>
       </c>
       <c r="D4" t="n">
-        <v>0.499563163133224</v>
+        <v>0.481364231382371</v>
       </c>
       <c r="E4" t="n">
-        <v>0.558096448993952</v>
+        <v>0.569289831805619</v>
       </c>
       <c r="F4" t="n">
-        <v>0.909868571645138</v>
+        <v>0.917733250467625</v>
       </c>
       <c r="G4" t="n">
-        <v>0.39827187591716</v>
+        <v>0.358270263809444</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/problem_mean.xlsx
+++ b/xlsx/country_comparison/problem_mean.xlsx
@@ -401,22 +401,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.285378286059404</v>
+        <v>0.307728229716857</v>
       </c>
       <c r="C2" t="n">
-        <v>0.432538732626294</v>
+        <v>0.428053013298207</v>
       </c>
       <c r="D2" t="n">
-        <v>0.381311940646684</v>
+        <v>0.380868529666756</v>
       </c>
       <c r="E2" t="n">
-        <v>0.370904568200323</v>
+        <v>0.370772969710635</v>
       </c>
       <c r="F2" t="n">
-        <v>0.718854935172076</v>
+        <v>0.704115573556895</v>
       </c>
       <c r="G2" t="n">
-        <v>0.395493103905953</v>
+        <v>0.395412506217614</v>
       </c>
     </row>
     <row r="3">
@@ -424,22 +424,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.419772214621581</v>
+        <v>0.476618098607288</v>
       </c>
       <c r="C3" t="n">
-        <v>0.753318322870394</v>
+        <v>0.75431864179569</v>
       </c>
       <c r="D3" t="n">
-        <v>0.830936960079889</v>
+        <v>0.830827255583373</v>
       </c>
       <c r="E3" t="n">
-        <v>0.734895238975058</v>
+        <v>0.734954169710259</v>
       </c>
       <c r="F3" t="n">
-        <v>0.845284995489185</v>
+        <v>0.815927605584445</v>
       </c>
       <c r="G3" t="n">
-        <v>0.652580521536031</v>
+        <v>0.652541300903682</v>
       </c>
     </row>
     <row r="4">
@@ -447,22 +447,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.294962046606193</v>
+        <v>0.322111939432922</v>
       </c>
       <c r="C4" t="n">
-        <v>0.546414814539169</v>
+        <v>0.541868622160248</v>
       </c>
       <c r="D4" t="n">
-        <v>0.481364231382371</v>
+        <v>0.481243758962403</v>
       </c>
       <c r="E4" t="n">
-        <v>0.569289831805619</v>
+        <v>0.569292756744511</v>
       </c>
       <c r="F4" t="n">
-        <v>0.917733250467625</v>
+        <v>0.862318993895442</v>
       </c>
       <c r="G4" t="n">
-        <v>0.358270263809444</v>
+        <v>0.358195455769581</v>
       </c>
     </row>
   </sheetData>
